--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364636.549648006</v>
+        <v>1361667.124648074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26121624.47308769</v>
+        <v>26121624.4730877</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4632855.548330733</v>
+        <v>4632855.548330732</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5344294.556979729</v>
+        <v>5344294.556979732</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>89.92167930019302</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.25502607878983</v>
       </c>
       <c r="T11" t="n">
         <v>211.0191007606778</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>79.05515415110295</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.09955177594199</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8056609037509</v>
       </c>
       <c r="H13" t="n">
         <v>135.3456981282891</v>
       </c>
       <c r="I13" t="n">
-        <v>75.05134658435109</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>277.339581881701</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>23.85835024662135</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>290.9184853729076</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5373132518632</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.8819053984114</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.25502607878983</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6306916267852</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>233.6153510546372</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.3456981282891</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.05134658435109</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.10364887852915</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.688125513266</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.535887211533</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>203.6019329234106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>86.06044702381057</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>197.6718661667055</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5373132518632</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>276.8819053984114</v>
@@ -1897,22 +1897,22 @@
         <v>63.25502607878983</v>
       </c>
       <c r="T17" t="n">
-        <v>211.0191007606778</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>27.93516334811369</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>64.54490304559194</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.10364887852915</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>154.688125513266</v>
@@ -2058,7 +2058,7 @@
         <v>237.535887211533</v>
       </c>
       <c r="U19" t="n">
-        <v>166.2347122600877</v>
+        <v>277.339581881701</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5373132518632</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.973398551124626</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>63.25502607878983</v>
       </c>
       <c r="T20" t="n">
-        <v>211.0191007606778</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6306916267852</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>85.75088618116141</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.10364887852915</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>154.688125513266</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.9744710055414</v>
+        <v>124.0781198840723</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>169.9174568260834</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>398.5373132518632</v>
       </c>
       <c r="H23" t="n">
-        <v>276.8819053984114</v>
+        <v>25.08219177087545</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8056609037513</v>
+        <v>163.8056609037509</v>
       </c>
       <c r="H25" t="n">
         <v>135.3456981282891</v>
@@ -2557,10 +2557,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>170.8320090592969</v>
       </c>
       <c r="D26" t="n">
-        <v>167.259980979312</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2730,7 +2730,7 @@
         <v>163.8056609037509</v>
       </c>
       <c r="H28" t="n">
-        <v>135.3456981282895</v>
+        <v>135.3456981282891</v>
       </c>
       <c r="I28" t="n">
         <v>75.05134658435109</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.25502607878983</v>
+        <v>22.47441321193173</v>
       </c>
       <c r="T29" t="n">
-        <v>211.0191007606778</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.830977999247589</v>
+        <v>255.6306916267852</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -3043,10 +3043,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.5373132518632</v>
+        <v>146.7375996243273</v>
       </c>
       <c r="H32" t="n">
-        <v>25.0821917708737</v>
+        <v>276.8819053984114</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>11.10364887852915</v>
       </c>
       <c r="S34" t="n">
-        <v>154.6881255132664</v>
+        <v>154.688125513266</v>
       </c>
       <c r="T34" t="n">
         <v>237.535887211533</v>
       </c>
       <c r="U34" t="n">
-        <v>277.339581881701</v>
+        <v>277.3395818817015</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3277,10 +3277,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>349.1482219955055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>306.3367349017126</v>
       </c>
     </row>
     <row r="36">
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70079128213733</v>
+        <v>163.8056609037509</v>
       </c>
       <c r="H37" t="n">
         <v>135.3456981282891</v>
@@ -3477,7 +3477,7 @@
         <v>154.688125513266</v>
       </c>
       <c r="T37" t="n">
-        <v>237.535887211533</v>
+        <v>126.4310175899207</v>
       </c>
       <c r="U37" t="n">
         <v>277.339581881701</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>53.31825190126894</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.5373132518632</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>276.8819053984114</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.25502607878983</v>
       </c>
       <c r="T38" t="n">
         <v>211.0191007606778</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6306916267852</v>
       </c>
       <c r="V38" t="n">
-        <v>144.1964110398335</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>59.14796786825962</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>112.9744710055427</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153.0917905193369</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>66.61431999458956</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.25502607878983</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>51.6021861416996</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.3456981282891</v>
       </c>
       <c r="I43" t="n">
         <v>75.05134658435109</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.10364887852915</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.535887211533</v>
       </c>
       <c r="U43" t="n">
-        <v>277.339581881701</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>192.9177883924493</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,10 +3982,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>276.8819053984114</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>63.25502607878983</v>
       </c>
       <c r="T44" t="n">
-        <v>211.0191007606778</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6306916267852</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>144.5220563156159</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>47.27688904101968</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.0340175300349</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>19.93012619584989</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8056609037509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.3456981282891</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>237.535887211533</v>
       </c>
       <c r="U46" t="n">
-        <v>277.339581881701</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1145.217408966203</v>
+        <v>719.2404691140603</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.217408966203</v>
+        <v>719.2404691140603</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.217408966203</v>
+        <v>719.2404691140603</v>
       </c>
       <c r="E11" t="n">
         <v>719.2404691140603</v>
@@ -5032,10 +5032,10 @@
         <v>719.2404691140603</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6775264354105</v>
+        <v>316.6775264354106</v>
       </c>
       <c r="H11" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I11" t="n">
         <v>69.90763682571003</v>
@@ -5059,7 +5059,7 @@
         <v>1409.928386262349</v>
       </c>
       <c r="P11" t="n">
-        <v>1623.054391739155</v>
+        <v>1623.054391739156</v>
       </c>
       <c r="Q11" t="n">
         <v>1775.275074679997</v>
@@ -5068,25 +5068,25 @@
         <v>1849.941705689143</v>
       </c>
       <c r="S11" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="T11" t="n">
-        <v>1636.791098860175</v>
+        <v>1572.897133124025</v>
       </c>
       <c r="U11" t="n">
-        <v>1636.791098860175</v>
+        <v>1572.897133124025</v>
       </c>
       <c r="V11" t="n">
-        <v>1556.937407798455</v>
+        <v>1215.407718250274</v>
       </c>
       <c r="W11" t="n">
-        <v>1556.937407798455</v>
+        <v>1215.407718250274</v>
       </c>
       <c r="X11" t="n">
-        <v>1145.217408966203</v>
+        <v>1215.407718250274</v>
       </c>
       <c r="Y11" t="n">
-        <v>1145.217408966203</v>
+        <v>810.0704482051643</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>81.1969543057206</v>
       </c>
       <c r="H12" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I12" t="n">
-        <v>76.51330239350409</v>
+        <v>53.05599654909227</v>
       </c>
       <c r="J12" t="n">
-        <v>436.2073553891375</v>
+        <v>120.6475570751346</v>
       </c>
       <c r="K12" t="n">
-        <v>564.432257171308</v>
+        <v>578.5081292331976</v>
       </c>
       <c r="L12" t="n">
-        <v>744.3738744908646</v>
+        <v>758.4497465527542</v>
       </c>
       <c r="M12" t="n">
-        <v>957.5027456830037</v>
+        <v>971.5786177448932</v>
       </c>
       <c r="N12" t="n">
-        <v>1178.613908709659</v>
+        <v>1192.689780771548</v>
       </c>
       <c r="O12" t="n">
-        <v>1526.94640442086</v>
+        <v>1391.352580649122</v>
       </c>
       <c r="P12" t="n">
-        <v>1683.2491924799</v>
+        <v>1577.793692194994</v>
       </c>
       <c r="Q12" t="n">
-        <v>1779.62159757375</v>
+        <v>1674.166097288845</v>
       </c>
       <c r="R12" t="n">
         <v>1814.013704851116</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>454.8167664084974</v>
+        <v>339.1719240451364</v>
       </c>
       <c r="C13" t="n">
-        <v>454.8167664084974</v>
+        <v>339.1719240451364</v>
       </c>
       <c r="D13" t="n">
-        <v>421.3828757257277</v>
+        <v>339.1719240451364</v>
       </c>
       <c r="E13" t="n">
-        <v>421.3828757257277</v>
+        <v>339.1719240451364</v>
       </c>
       <c r="F13" t="n">
-        <v>249.5211015002881</v>
+        <v>339.1719240451364</v>
       </c>
       <c r="G13" t="n">
-        <v>249.5211015002881</v>
+        <v>173.7116605059941</v>
       </c>
       <c r="H13" t="n">
-        <v>112.8082751080769</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I13" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="J13" t="n">
         <v>71.77466186313546</v>
@@ -5217,7 +5217,7 @@
         <v>1423.889712370954</v>
       </c>
       <c r="P13" t="n">
-        <v>1808.92938976426</v>
+        <v>1808.929389764261</v>
       </c>
       <c r="Q13" t="n">
         <v>1849.941705689143</v>
@@ -5235,16 +5235,16 @@
         <v>1162.399035502245</v>
       </c>
       <c r="V13" t="n">
-        <v>1162.399035502245</v>
+        <v>880.6875681102742</v>
       </c>
       <c r="W13" t="n">
-        <v>887.5466316747579</v>
+        <v>605.8351642827872</v>
       </c>
       <c r="X13" t="n">
-        <v>644.982735120563</v>
+        <v>363.2712677285923</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.982735120563</v>
+        <v>339.1719240451364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1438.22170685689</v>
+        <v>460.2914549287826</v>
       </c>
       <c r="C14" t="n">
-        <v>1438.22170685689</v>
+        <v>460.2914549287826</v>
       </c>
       <c r="D14" t="n">
-        <v>1438.22170685689</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.36465092466</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="F14" t="n">
-        <v>719.2404691140603</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6775264354105</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="H14" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I14" t="n">
         <v>69.90763682570991</v>
       </c>
       <c r="J14" t="n">
-        <v>188.5279747827644</v>
+        <v>188.5279747827645</v>
       </c>
       <c r="K14" t="n">
-        <v>374.5541214448813</v>
+        <v>374.5541214448816</v>
       </c>
       <c r="L14" t="n">
-        <v>611.3325422382679</v>
+        <v>611.3325422382682</v>
       </c>
       <c r="M14" t="n">
-        <v>879.9404412730034</v>
+        <v>879.9404412730037</v>
       </c>
       <c r="N14" t="n">
         <v>1153.644440796594</v>
       </c>
       <c r="O14" t="n">
-        <v>1409.928386262348</v>
+        <v>1409.928386262349</v>
       </c>
       <c r="P14" t="n">
-        <v>1623.054391739155</v>
+        <v>1623.054391739156</v>
       </c>
       <c r="Q14" t="n">
-        <v>1775.275074679996</v>
+        <v>1775.275074679997</v>
       </c>
       <c r="R14" t="n">
         <v>1849.941705689143</v>
       </c>
       <c r="S14" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="T14" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.941705689143</v>
+        <v>1527.834920127957</v>
       </c>
       <c r="V14" t="n">
-        <v>1849.941705689143</v>
+        <v>1527.834920127957</v>
       </c>
       <c r="W14" t="n">
-        <v>1849.941705689143</v>
+        <v>1291.859818052566</v>
       </c>
       <c r="X14" t="n">
-        <v>1438.22170685689</v>
+        <v>880.1398192203127</v>
       </c>
       <c r="Y14" t="n">
-        <v>1438.22170685689</v>
+        <v>880.1398192203127</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>81.1969543057206</v>
       </c>
       <c r="H15" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I15" t="n">
-        <v>53.05599654909226</v>
+        <v>76.51330239350411</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6475570751346</v>
+        <v>144.1048629195464</v>
       </c>
       <c r="K15" t="n">
-        <v>248.8724588573051</v>
+        <v>272.329764701717</v>
       </c>
       <c r="L15" t="n">
-        <v>428.8140761768618</v>
+        <v>452.2713820212736</v>
       </c>
       <c r="M15" t="n">
-        <v>641.9429473690009</v>
+        <v>665.4002532134126</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.803519527064</v>
+        <v>886.5114162400674</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.466319404638</v>
+        <v>1085.174216117641</v>
       </c>
       <c r="P15" t="n">
-        <v>1577.793692194994</v>
+        <v>1241.477004176681</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.166097288845</v>
+        <v>1699.337576334744</v>
       </c>
       <c r="R15" t="n">
         <v>1814.013704851116</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3581501806822</v>
+        <v>922.8804175671875</v>
       </c>
       <c r="C16" t="n">
-        <v>538.3855870595982</v>
+        <v>750.9078544461034</v>
       </c>
       <c r="D16" t="n">
-        <v>375.0688141863689</v>
+        <v>587.5910815728741</v>
       </c>
       <c r="E16" t="n">
-        <v>208.8606083392224</v>
+        <v>421.3828757257277</v>
       </c>
       <c r="F16" t="n">
-        <v>36.99883411378286</v>
+        <v>249.5211015002882</v>
       </c>
       <c r="G16" t="n">
-        <v>36.99883411378286</v>
+        <v>249.5211015002882</v>
       </c>
       <c r="H16" t="n">
-        <v>36.99883411378286</v>
+        <v>112.8082751080769</v>
       </c>
       <c r="I16" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="J16" t="n">
-        <v>149.6963785113563</v>
+        <v>71.77466186313546</v>
       </c>
       <c r="K16" t="n">
-        <v>219.6621424555888</v>
+        <v>141.7404258073679</v>
       </c>
       <c r="L16" t="n">
-        <v>677.5227146136516</v>
+        <v>363.064200470073</v>
       </c>
       <c r="M16" t="n">
-        <v>820.9247726281357</v>
+        <v>820.924772628136</v>
       </c>
       <c r="N16" t="n">
-        <v>1278.785344786198</v>
+        <v>1278.785344786199</v>
       </c>
       <c r="O16" t="n">
-        <v>1736.645916944261</v>
+        <v>1736.645916944262</v>
       </c>
       <c r="P16" t="n">
-        <v>1808.92938976426</v>
+        <v>1808.929389764261</v>
       </c>
       <c r="Q16" t="n">
         <v>1849.941705689143</v>
       </c>
       <c r="R16" t="n">
-        <v>1849.941705689143</v>
+        <v>1838.725898741134</v>
       </c>
       <c r="S16" t="n">
-        <v>1849.941705689143</v>
+        <v>1682.475266909552</v>
       </c>
       <c r="T16" t="n">
-        <v>1849.941705689143</v>
+        <v>1442.540027301943</v>
       </c>
       <c r="U16" t="n">
-        <v>1849.941705689143</v>
+        <v>1442.540027301943</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.283187584688</v>
+        <v>1442.540027301943</v>
       </c>
       <c r="W16" t="n">
-        <v>1369.430783757201</v>
+        <v>1442.540027301943</v>
       </c>
       <c r="X16" t="n">
-        <v>1126.866887203006</v>
+        <v>1199.976130747749</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.5241188927478</v>
+        <v>1113.046386279253</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2018.249484219995</v>
+        <v>2038.979162356345</v>
       </c>
       <c r="C17" t="n">
-        <v>1591.348754233295</v>
+        <v>1612.078432369645</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.348754233295</v>
+        <v>1188.785811554645</v>
       </c>
       <c r="E17" t="n">
-        <v>1165.371814381152</v>
+        <v>762.8088717025028</v>
       </c>
       <c r="F17" t="n">
-        <v>740.2476325705527</v>
+        <v>337.684689891903</v>
       </c>
       <c r="G17" t="n">
         <v>337.684689891903</v>
       </c>
       <c r="H17" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I17" t="n">
-        <v>90.91480028220244</v>
+        <v>90.91480028220246</v>
       </c>
       <c r="J17" t="n">
-        <v>209.535138239257</v>
+        <v>601.2643569468833</v>
       </c>
       <c r="K17" t="n">
-        <v>927.3593581714138</v>
+        <v>1319.08857687904</v>
       </c>
       <c r="L17" t="n">
-        <v>1509.452056785138</v>
+        <v>1661.690715062891</v>
       </c>
       <c r="M17" t="n">
-        <v>1778.059955819873</v>
+        <v>1930.298614097626</v>
       </c>
       <c r="N17" t="n">
-        <v>2051.763955343464</v>
+        <v>2204.002613621216</v>
       </c>
       <c r="O17" t="n">
-        <v>2308.047900809218</v>
+        <v>2460.286559086971</v>
       </c>
       <c r="P17" t="n">
-        <v>2521.173906286025</v>
+        <v>2673.412564563778</v>
       </c>
       <c r="Q17" t="n">
-        <v>2673.394589226867</v>
+        <v>2825.633247504619</v>
       </c>
       <c r="R17" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513766</v>
       </c>
       <c r="S17" t="n">
-        <v>2836.405912777613</v>
+        <v>2836.405912777615</v>
       </c>
       <c r="T17" t="n">
-        <v>2623.255305948645</v>
+        <v>2836.405912777615</v>
       </c>
       <c r="U17" t="n">
-        <v>2623.255305948645</v>
+        <v>2808.188576062348</v>
       </c>
       <c r="V17" t="n">
-        <v>2623.255305948645</v>
+        <v>2450.699161188597</v>
       </c>
       <c r="W17" t="n">
-        <v>2623.255305948645</v>
+        <v>2450.699161188597</v>
       </c>
       <c r="X17" t="n">
-        <v>2623.255305948645</v>
+        <v>2038.979162356345</v>
       </c>
       <c r="Y17" t="n">
-        <v>2217.918035903536</v>
+        <v>2038.979162356345</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>497.4953042376826</v>
       </c>
       <c r="D18" t="n">
-        <v>393.6553457529676</v>
+        <v>393.6553457529677</v>
       </c>
       <c r="E18" t="n">
-        <v>288.9534120259048</v>
+        <v>288.9534120259049</v>
       </c>
       <c r="F18" t="n">
         <v>195.307581708809</v>
@@ -5588,34 +5588,34 @@
         <v>102.204117762213</v>
       </c>
       <c r="H18" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I18" t="n">
-        <v>74.06316000558468</v>
+        <v>97.52046584999655</v>
       </c>
       <c r="J18" t="n">
-        <v>433.7572130012181</v>
+        <v>165.1120263760389</v>
       </c>
       <c r="K18" t="n">
-        <v>561.9821147833886</v>
+        <v>735.1091164614281</v>
       </c>
       <c r="L18" t="n">
-        <v>741.9237321029452</v>
+        <v>915.0507337809847</v>
       </c>
       <c r="M18" t="n">
-        <v>955.0526032950843</v>
+        <v>1128.179604973124</v>
       </c>
       <c r="N18" t="n">
-        <v>1176.163766321739</v>
+        <v>1349.290767999779</v>
       </c>
       <c r="O18" t="n">
-        <v>1374.826566199313</v>
+        <v>1547.953567877353</v>
       </c>
       <c r="P18" t="n">
-        <v>1531.129354258353</v>
+        <v>1704.256355936392</v>
       </c>
       <c r="Q18" t="n">
-        <v>1695.173260745337</v>
+        <v>1800.628761030243</v>
       </c>
       <c r="R18" t="n">
         <v>1835.020868307608</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1109.347844562822</v>
+        <v>1008.3365104789</v>
       </c>
       <c r="C19" t="n">
-        <v>937.3752814417383</v>
+        <v>836.363947357816</v>
       </c>
       <c r="D19" t="n">
-        <v>774.058508568509</v>
+        <v>673.0471744845867</v>
       </c>
       <c r="E19" t="n">
         <v>607.8503027213625</v>
@@ -5670,7 +5670,7 @@
         <v>133.8154385645693</v>
       </c>
       <c r="I19" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="J19" t="n">
         <v>170.7035419678488</v>
@@ -5682,43 +5682,43 @@
         <v>958.7325902230618</v>
       </c>
       <c r="M19" t="n">
-        <v>1472.32044067463</v>
+        <v>1360.093299642698</v>
       </c>
       <c r="N19" t="n">
-        <v>1969.303559734683</v>
+        <v>1857.076418702751</v>
       </c>
       <c r="O19" t="n">
-        <v>2322.874387817676</v>
+        <v>2322.874387817677</v>
       </c>
       <c r="P19" t="n">
-        <v>2707.914065210982</v>
+        <v>2707.914065210984</v>
       </c>
       <c r="Q19" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513766</v>
       </c>
       <c r="R19" t="n">
-        <v>2889.084071565755</v>
+        <v>2900.299878513766</v>
       </c>
       <c r="S19" t="n">
-        <v>2732.833439734173</v>
+        <v>2744.049246682184</v>
       </c>
       <c r="T19" t="n">
-        <v>2492.898200126564</v>
+        <v>2504.114007074575</v>
       </c>
       <c r="U19" t="n">
-        <v>2324.984349358799</v>
+        <v>2223.973015274877</v>
       </c>
       <c r="V19" t="n">
-        <v>2043.272881966828</v>
+        <v>1942.261547882905</v>
       </c>
       <c r="W19" t="n">
-        <v>1768.420478139341</v>
+        <v>1667.409144055418</v>
       </c>
       <c r="X19" t="n">
-        <v>1525.856581585146</v>
+        <v>1424.845247501224</v>
       </c>
       <c r="Y19" t="n">
-        <v>1299.513813274888</v>
+        <v>1198.502479190966</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1759.300470034717</v>
+        <v>1746.624729828796</v>
       </c>
       <c r="C20" t="n">
-        <v>1332.399740048017</v>
+        <v>1319.723999842096</v>
       </c>
       <c r="D20" t="n">
-        <v>909.1071192330176</v>
+        <v>1319.723999842096</v>
       </c>
       <c r="E20" t="n">
-        <v>483.1301793808751</v>
+        <v>893.7470599899538</v>
       </c>
       <c r="F20" t="n">
-        <v>58.00599757027528</v>
+        <v>468.622878179354</v>
       </c>
       <c r="G20" t="n">
-        <v>58.00599757027528</v>
+        <v>66.05993550070423</v>
       </c>
       <c r="H20" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I20" t="n">
-        <v>90.91480028220242</v>
+        <v>90.91480028220246</v>
       </c>
       <c r="J20" t="n">
-        <v>209.535138239257</v>
+        <v>601.2643569468833</v>
       </c>
       <c r="K20" t="n">
-        <v>395.5612849013739</v>
+        <v>787.2905036090002</v>
       </c>
       <c r="L20" t="n">
-        <v>632.3397056947606</v>
+        <v>1024.068924402387</v>
       </c>
       <c r="M20" t="n">
-        <v>1350.163925626917</v>
+        <v>1292.676823437122</v>
       </c>
       <c r="N20" t="n">
-        <v>1623.867925150508</v>
+        <v>1566.380822960712</v>
       </c>
       <c r="O20" t="n">
-        <v>1880.151870616262</v>
+        <v>1822.664768426467</v>
       </c>
       <c r="P20" t="n">
-        <v>2597.976090548419</v>
+        <v>2035.790773903274</v>
       </c>
       <c r="Q20" t="n">
-        <v>2825.633247504617</v>
+        <v>2673.394589226868</v>
       </c>
       <c r="R20" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513766</v>
       </c>
       <c r="S20" t="n">
-        <v>2836.405912777613</v>
+        <v>2836.405912777615</v>
       </c>
       <c r="T20" t="n">
-        <v>2623.255305948645</v>
+        <v>2836.405912777615</v>
       </c>
       <c r="U20" t="n">
-        <v>2623.255305948645</v>
+        <v>2578.193092952579</v>
       </c>
       <c r="V20" t="n">
-        <v>2265.765891074895</v>
+        <v>2578.193092952579</v>
       </c>
       <c r="W20" t="n">
-        <v>2179.148834326247</v>
+        <v>2578.193092952579</v>
       </c>
       <c r="X20" t="n">
-        <v>2179.148834326247</v>
+        <v>2166.473094120326</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.148834326247</v>
+        <v>2166.473094120326</v>
       </c>
     </row>
     <row r="21">
@@ -5813,10 +5813,10 @@
         <v>497.4953042376826</v>
       </c>
       <c r="D21" t="n">
-        <v>393.6553457529676</v>
+        <v>393.6553457529677</v>
       </c>
       <c r="E21" t="n">
-        <v>288.9534120259048</v>
+        <v>288.9534120259049</v>
       </c>
       <c r="F21" t="n">
         <v>195.307581708809</v>
@@ -5825,34 +5825,34 @@
         <v>102.204117762213</v>
       </c>
       <c r="H21" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I21" t="n">
-        <v>74.06316000558468</v>
+        <v>74.06316000558471</v>
       </c>
       <c r="J21" t="n">
         <v>141.654720531627</v>
       </c>
       <c r="K21" t="n">
-        <v>269.8796223137975</v>
+        <v>735.1091164614281</v>
       </c>
       <c r="L21" t="n">
-        <v>809.5952334960791</v>
+        <v>915.0507337809847</v>
       </c>
       <c r="M21" t="n">
-        <v>1022.724104688218</v>
+        <v>1128.179604973124</v>
       </c>
       <c r="N21" t="n">
-        <v>1243.835267714873</v>
+        <v>1349.290767999779</v>
       </c>
       <c r="O21" t="n">
-        <v>1442.498067592447</v>
+        <v>1547.953567877353</v>
       </c>
       <c r="P21" t="n">
-        <v>1598.800855651486</v>
+        <v>1704.256355936392</v>
       </c>
       <c r="Q21" t="n">
-        <v>1695.173260745337</v>
+        <v>1800.628761030243</v>
       </c>
       <c r="R21" t="n">
         <v>1835.020868307608</v>
@@ -5907,52 +5907,52 @@
         <v>133.8154385645693</v>
       </c>
       <c r="I22" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="J22" t="n">
-        <v>92.78182531962787</v>
+        <v>170.7035419678488</v>
       </c>
       <c r="K22" t="n">
-        <v>410.0301983778824</v>
+        <v>487.9519150261032</v>
       </c>
       <c r="L22" t="n">
-        <v>880.8108735748409</v>
+        <v>958.7325902230618</v>
       </c>
       <c r="M22" t="n">
-        <v>1360.093299642696</v>
+        <v>1472.32044067463</v>
       </c>
       <c r="N22" t="n">
-        <v>1857.076418702749</v>
+        <v>1857.076418702751</v>
       </c>
       <c r="O22" t="n">
-        <v>2322.874387817676</v>
+        <v>2322.874387817677</v>
       </c>
       <c r="P22" t="n">
-        <v>2707.914065210982</v>
+        <v>2707.914065210984</v>
       </c>
       <c r="Q22" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513766</v>
       </c>
       <c r="R22" t="n">
-        <v>2889.084071565755</v>
+        <v>2900.299878513766</v>
       </c>
       <c r="S22" t="n">
-        <v>2732.833439734173</v>
+        <v>2744.049246682184</v>
       </c>
       <c r="T22" t="n">
-        <v>2492.898200126564</v>
+        <v>2504.114007074575</v>
       </c>
       <c r="U22" t="n">
-        <v>2212.757208326866</v>
+        <v>2223.973015274877</v>
       </c>
       <c r="V22" t="n">
-        <v>1931.045740934894</v>
+        <v>1942.261547882905</v>
       </c>
       <c r="W22" t="n">
-        <v>1656.193337107407</v>
+        <v>1667.409144055418</v>
       </c>
       <c r="X22" t="n">
-        <v>1413.629440553213</v>
+        <v>1424.845247501224</v>
       </c>
       <c r="Y22" t="n">
         <v>1299.513813274888</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2224.197794070456</v>
+        <v>2224.197794070458</v>
       </c>
       <c r="C23" t="n">
-        <v>1797.297064083757</v>
+        <v>1797.297064083758</v>
       </c>
       <c r="D23" t="n">
-        <v>1374.004443268757</v>
+        <v>1374.004443268759</v>
       </c>
       <c r="E23" t="n">
-        <v>1202.370648494935</v>
+        <v>948.0275034166162</v>
       </c>
       <c r="F23" t="n">
-        <v>777.2464666843356</v>
+        <v>522.9033216060164</v>
       </c>
       <c r="G23" t="n">
-        <v>374.6835240056859</v>
+        <v>120.3403789273667</v>
       </c>
       <c r="H23" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I23" t="n">
         <v>127.9136343959853</v>
@@ -6001,40 +6001,40 @@
         <v>2080.590920313265</v>
       </c>
       <c r="N23" t="n">
-        <v>2664.377866319815</v>
+        <v>2354.294919836856</v>
       </c>
       <c r="O23" t="n">
-        <v>2920.661811785569</v>
+        <v>2920.661811785571</v>
       </c>
       <c r="P23" t="n">
-        <v>3879.266704612432</v>
+        <v>3879.266704612434</v>
       </c>
       <c r="Q23" t="n">
-        <v>4523.336294916009</v>
+        <v>4523.336294916011</v>
       </c>
       <c r="R23" t="n">
-        <v>4750.241584202907</v>
+        <v>4750.241584202909</v>
       </c>
       <c r="S23" t="n">
-        <v>4686.347618466755</v>
+        <v>4686.347618466757</v>
       </c>
       <c r="T23" t="n">
-        <v>4473.197011637788</v>
+        <v>4473.19701163779</v>
       </c>
       <c r="U23" t="n">
-        <v>4214.984191812752</v>
+        <v>4214.984191812754</v>
       </c>
       <c r="V23" t="n">
-        <v>3857.494776939002</v>
+        <v>3857.494776939004</v>
       </c>
       <c r="W23" t="n">
-        <v>3461.103427239349</v>
+        <v>3461.103427239351</v>
       </c>
       <c r="X23" t="n">
-        <v>3049.383428407096</v>
+        <v>3049.383428407098</v>
       </c>
       <c r="Y23" t="n">
-        <v>2644.046158361987</v>
+        <v>2644.046158361989</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>325.9522461396877</v>
       </c>
       <c r="F24" t="n">
-        <v>232.3064158225918</v>
+        <v>232.3064158225919</v>
       </c>
       <c r="G24" t="n">
         <v>139.2029518759959</v>
       </c>
       <c r="H24" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I24" t="n">
-        <v>111.0619941193675</v>
+        <v>134.5192999637794</v>
       </c>
       <c r="J24" t="n">
-        <v>470.7560471150009</v>
+        <v>494.2133529594128</v>
       </c>
       <c r="K24" t="n">
-        <v>598.9809488971714</v>
+        <v>622.4382547415834</v>
       </c>
       <c r="L24" t="n">
-        <v>778.922566216728</v>
+        <v>802.37987206114</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.178439086907</v>
+        <v>1015.508743253279</v>
       </c>
       <c r="N24" t="n">
-        <v>1386.289602113561</v>
+        <v>1236.619906279934</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.952401991136</v>
+        <v>1435.282706157508</v>
       </c>
       <c r="P24" t="n">
-        <v>1741.255190050175</v>
+        <v>1591.585494216547</v>
       </c>
       <c r="Q24" t="n">
-        <v>1837.627595144026</v>
+        <v>1732.17209485912</v>
       </c>
       <c r="R24" t="n">
         <v>1872.019702421391</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1146.346678676606</v>
+        <v>1146.346678676605</v>
       </c>
       <c r="C25" t="n">
-        <v>974.3741155555215</v>
+        <v>974.3741155555211</v>
       </c>
       <c r="D25" t="n">
-        <v>811.0573426822922</v>
+        <v>811.0573426822918</v>
       </c>
       <c r="E25" t="n">
-        <v>644.8491368351457</v>
+        <v>644.8491368351454</v>
       </c>
       <c r="F25" t="n">
-        <v>472.9873626097061</v>
+        <v>472.9873626097058</v>
       </c>
       <c r="G25" t="n">
-        <v>307.5270990705634</v>
+        <v>307.5270990705635</v>
       </c>
       <c r="H25" t="n">
         <v>170.8142726783522</v>
       </c>
       <c r="I25" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="J25" t="n">
-        <v>207.7023760816316</v>
+        <v>207.7023760816315</v>
       </c>
       <c r="K25" t="n">
         <v>524.9507491398861</v>
@@ -6159,10 +6159,10 @@
         <v>1509.319274788412</v>
       </c>
       <c r="N25" t="n">
-        <v>2006.302393848466</v>
+        <v>2006.302393848465</v>
       </c>
       <c r="O25" t="n">
-        <v>2472.100362963392</v>
+        <v>2472.100362963391</v>
       </c>
       <c r="P25" t="n">
         <v>2857.140040356698</v>
@@ -6171,16 +6171,16 @@
         <v>3049.52585365948</v>
       </c>
       <c r="R25" t="n">
-        <v>3038.310046711471</v>
+        <v>3038.31004671147</v>
       </c>
       <c r="S25" t="n">
         <v>2882.059414879889</v>
       </c>
       <c r="T25" t="n">
-        <v>2642.12417527228</v>
+        <v>2642.124175272279</v>
       </c>
       <c r="U25" t="n">
-        <v>2361.983183472582</v>
+        <v>2361.983183472581</v>
       </c>
       <c r="V25" t="n">
         <v>2080.271716080611</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2224.197794070456</v>
+        <v>2224.197794070458</v>
       </c>
       <c r="C26" t="n">
-        <v>1797.297064083757</v>
+        <v>2051.640209162078</v>
       </c>
       <c r="D26" t="n">
         <v>1628.347588347078</v>
@@ -6220,7 +6220,7 @@
         <v>374.6835240056859</v>
       </c>
       <c r="H26" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I26" t="n">
         <v>127.9136343959853</v>
@@ -6229,49 +6229,49 @@
         <v>638.263191060666</v>
       </c>
       <c r="K26" t="n">
-        <v>978.210653912618</v>
+        <v>824.289337722783</v>
       </c>
       <c r="L26" t="n">
-        <v>1214.989074706005</v>
+        <v>1061.06775851617</v>
       </c>
       <c r="M26" t="n">
-        <v>2390.673866796224</v>
+        <v>1329.675657550905</v>
       </c>
       <c r="N26" t="n">
-        <v>2664.377866319815</v>
+        <v>1782.21616640654</v>
       </c>
       <c r="O26" t="n">
-        <v>2920.661811785569</v>
+        <v>2920.661811785571</v>
       </c>
       <c r="P26" t="n">
-        <v>3879.266704612432</v>
+        <v>3879.266704612434</v>
       </c>
       <c r="Q26" t="n">
-        <v>4523.336294916009</v>
+        <v>4523.336294916011</v>
       </c>
       <c r="R26" t="n">
-        <v>4750.241584202907</v>
+        <v>4750.241584202909</v>
       </c>
       <c r="S26" t="n">
-        <v>4686.347618466755</v>
+        <v>4686.347618466757</v>
       </c>
       <c r="T26" t="n">
-        <v>4473.197011637788</v>
+        <v>4473.19701163779</v>
       </c>
       <c r="U26" t="n">
-        <v>4214.984191812752</v>
+        <v>4214.984191812754</v>
       </c>
       <c r="V26" t="n">
-        <v>3857.494776939002</v>
+        <v>3857.494776939004</v>
       </c>
       <c r="W26" t="n">
-        <v>3461.103427239349</v>
+        <v>3461.103427239351</v>
       </c>
       <c r="X26" t="n">
-        <v>3049.383428407096</v>
+        <v>3049.383428407098</v>
       </c>
       <c r="Y26" t="n">
-        <v>2644.046158361987</v>
+        <v>2644.046158361989</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>325.9522461396877</v>
       </c>
       <c r="F27" t="n">
-        <v>232.3064158225918</v>
+        <v>232.3064158225919</v>
       </c>
       <c r="G27" t="n">
         <v>139.2029518759959</v>
       </c>
       <c r="H27" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I27" t="n">
-        <v>111.0619941193675</v>
+        <v>111.0619941193676</v>
       </c>
       <c r="J27" t="n">
-        <v>470.7560471150009</v>
+        <v>178.6535546454099</v>
       </c>
       <c r="K27" t="n">
         <v>772.1079505752109</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1146.346678676606</v>
+        <v>1146.346678676605</v>
       </c>
       <c r="C28" t="n">
-        <v>974.3741155555215</v>
+        <v>974.3741155555211</v>
       </c>
       <c r="D28" t="n">
-        <v>811.0573426822922</v>
+        <v>811.0573426822918</v>
       </c>
       <c r="E28" t="n">
-        <v>644.8491368351457</v>
+        <v>644.8491368351454</v>
       </c>
       <c r="F28" t="n">
-        <v>472.9873626097061</v>
+        <v>472.9873626097058</v>
       </c>
       <c r="G28" t="n">
-        <v>307.5270990705638</v>
+        <v>307.5270990705635</v>
       </c>
       <c r="H28" t="n">
         <v>170.8142726783522</v>
       </c>
       <c r="I28" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="J28" t="n">
-        <v>207.7023760816316</v>
+        <v>207.7023760816317</v>
       </c>
       <c r="K28" t="n">
-        <v>524.9507491398861</v>
+        <v>524.9507491398862</v>
       </c>
       <c r="L28" t="n">
-        <v>995.7314243368446</v>
+        <v>995.7314243368447</v>
       </c>
       <c r="M28" t="n">
-        <v>1509.319274788412</v>
+        <v>1509.319274788413</v>
       </c>
       <c r="N28" t="n">
         <v>2006.302393848466</v>
@@ -6457,7 +6457,7 @@
         <v>374.6835240056859</v>
       </c>
       <c r="H29" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I29" t="n">
         <v>127.9136343959853</v>
@@ -6466,34 +6466,34 @@
         <v>638.263191060666</v>
       </c>
       <c r="K29" t="n">
-        <v>1575.204600485143</v>
+        <v>1003.125847054828</v>
       </c>
       <c r="L29" t="n">
-        <v>1811.98302127853</v>
+        <v>1239.904267848215</v>
       </c>
       <c r="M29" t="n">
-        <v>2080.590920313265</v>
+        <v>1508.51216688295</v>
       </c>
       <c r="N29" t="n">
-        <v>2354.294919836856</v>
+        <v>1782.21616640654</v>
       </c>
       <c r="O29" t="n">
-        <v>2920.661811785569</v>
+        <v>2920.661811785571</v>
       </c>
       <c r="P29" t="n">
-        <v>3879.266704612432</v>
+        <v>3879.266704612434</v>
       </c>
       <c r="Q29" t="n">
-        <v>4523.336294916009</v>
+        <v>4523.336294916011</v>
       </c>
       <c r="R29" t="n">
-        <v>4750.241584202907</v>
+        <v>4750.241584202909</v>
       </c>
       <c r="S29" t="n">
-        <v>4686.347618466755</v>
+        <v>4727.540156716109</v>
       </c>
       <c r="T29" t="n">
-        <v>4473.197011637788</v>
+        <v>4727.540156716109</v>
       </c>
       <c r="U29" t="n">
         <v>4469.327336891073</v>
@@ -6530,40 +6530,40 @@
         <v>325.9522461396877</v>
       </c>
       <c r="F30" t="n">
-        <v>232.3064158225918</v>
+        <v>232.3064158225919</v>
       </c>
       <c r="G30" t="n">
         <v>139.2029518759959</v>
       </c>
       <c r="H30" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I30" t="n">
-        <v>111.0619941193675</v>
+        <v>134.5192999637794</v>
       </c>
       <c r="J30" t="n">
-        <v>470.7560471150009</v>
+        <v>494.2133529594128</v>
       </c>
       <c r="K30" t="n">
-        <v>598.9809488971714</v>
+        <v>666.6524502903053</v>
       </c>
       <c r="L30" t="n">
-        <v>778.922566216728</v>
+        <v>846.5940676098619</v>
       </c>
       <c r="M30" t="n">
-        <v>992.0514374088671</v>
+        <v>1059.722938802001</v>
       </c>
       <c r="N30" t="n">
-        <v>1213.162600435522</v>
+        <v>1280.834101828656</v>
       </c>
       <c r="O30" t="n">
-        <v>1584.952401991136</v>
+        <v>1479.49690170623</v>
       </c>
       <c r="P30" t="n">
-        <v>1741.255190050175</v>
+        <v>1635.799689765269</v>
       </c>
       <c r="Q30" t="n">
-        <v>1837.627595144026</v>
+        <v>1732.17209485912</v>
       </c>
       <c r="R30" t="n">
         <v>1872.019702421391</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2847.062409220031</v>
+        <v>1146.346678676605</v>
       </c>
       <c r="C31" t="n">
-        <v>2675.089846098947</v>
+        <v>974.374115555521</v>
       </c>
       <c r="D31" t="n">
-        <v>2511.773073225718</v>
+        <v>811.0573426822917</v>
       </c>
       <c r="E31" t="n">
-        <v>2345.564867378572</v>
+        <v>644.8491368351453</v>
       </c>
       <c r="F31" t="n">
-        <v>2173.703093153133</v>
+        <v>472.9873626097057</v>
       </c>
       <c r="G31" t="n">
-        <v>2008.24282961399</v>
+        <v>307.5270990705635</v>
       </c>
       <c r="H31" t="n">
-        <v>1871.530003221779</v>
+        <v>170.8142726783522</v>
       </c>
       <c r="I31" t="n">
-        <v>1795.720562227485</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="J31" t="n">
-        <v>1908.418106625058</v>
+        <v>207.7023760816315</v>
       </c>
       <c r="K31" t="n">
-        <v>2225.666479683313</v>
+        <v>524.9507491398859</v>
       </c>
       <c r="L31" t="n">
-        <v>2696.447154880272</v>
+        <v>995.7314243368445</v>
       </c>
       <c r="M31" t="n">
-        <v>3210.03500533184</v>
+        <v>1509.319274788412</v>
       </c>
       <c r="N31" t="n">
-        <v>3707.018124391893</v>
+        <v>2006.302393848465</v>
       </c>
       <c r="O31" t="n">
-        <v>4172.816093506819</v>
+        <v>2472.100362963391</v>
       </c>
       <c r="P31" t="n">
-        <v>4557.855770900125</v>
+        <v>2857.140040356698</v>
       </c>
       <c r="Q31" t="n">
-        <v>4750.241584202907</v>
+        <v>3049.52585365948</v>
       </c>
       <c r="R31" t="n">
-        <v>4739.025777254898</v>
+        <v>3038.31004671147</v>
       </c>
       <c r="S31" t="n">
-        <v>4582.775145423316</v>
+        <v>2882.059414879889</v>
       </c>
       <c r="T31" t="n">
-        <v>4342.839905815707</v>
+        <v>2642.124175272279</v>
       </c>
       <c r="U31" t="n">
-        <v>4062.698914016009</v>
+        <v>2361.983183472581</v>
       </c>
       <c r="V31" t="n">
-        <v>3780.987446624037</v>
+        <v>2080.271716080611</v>
       </c>
       <c r="W31" t="n">
-        <v>3506.13504279655</v>
+        <v>1805.419312253124</v>
       </c>
       <c r="X31" t="n">
-        <v>3263.571146242355</v>
+        <v>1562.855415698929</v>
       </c>
       <c r="Y31" t="n">
-        <v>3037.228377932097</v>
+        <v>1336.512647388671</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2224.197794070456</v>
+        <v>2224.197794070458</v>
       </c>
       <c r="C32" t="n">
-        <v>1797.297064083757</v>
+        <v>1797.297064083758</v>
       </c>
       <c r="D32" t="n">
-        <v>1374.004443268757</v>
+        <v>1374.004443268759</v>
       </c>
       <c r="E32" t="n">
-        <v>948.0275034166144</v>
+        <v>948.0275034166162</v>
       </c>
       <c r="F32" t="n">
-        <v>522.9033216060146</v>
+        <v>522.9033216060164</v>
       </c>
       <c r="G32" t="n">
-        <v>120.3403789273649</v>
+        <v>374.6835240056859</v>
       </c>
       <c r="H32" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I32" t="n">
         <v>127.9136343959853</v>
@@ -6703,49 +6703,49 @@
         <v>638.263191060666</v>
       </c>
       <c r="K32" t="n">
-        <v>824.289337722783</v>
+        <v>1003.125847054828</v>
       </c>
       <c r="L32" t="n">
-        <v>1061.06775851617</v>
+        <v>1239.904267848215</v>
       </c>
       <c r="M32" t="n">
-        <v>2236.752550606389</v>
+        <v>1508.51216688295</v>
       </c>
       <c r="N32" t="n">
-        <v>2664.377866319815</v>
+        <v>1782.21616640654</v>
       </c>
       <c r="O32" t="n">
-        <v>2920.661811785569</v>
+        <v>2920.661811785571</v>
       </c>
       <c r="P32" t="n">
-        <v>3879.266704612432</v>
+        <v>3879.266704612434</v>
       </c>
       <c r="Q32" t="n">
-        <v>4523.336294916009</v>
+        <v>4523.336294916011</v>
       </c>
       <c r="R32" t="n">
-        <v>4750.241584202907</v>
+        <v>4750.241584202909</v>
       </c>
       <c r="S32" t="n">
-        <v>4686.347618466755</v>
+        <v>4686.347618466757</v>
       </c>
       <c r="T32" t="n">
-        <v>4473.197011637788</v>
+        <v>4473.19701163779</v>
       </c>
       <c r="U32" t="n">
-        <v>4214.984191812752</v>
+        <v>4214.984191812754</v>
       </c>
       <c r="V32" t="n">
-        <v>3857.494776939002</v>
+        <v>3857.494776939004</v>
       </c>
       <c r="W32" t="n">
-        <v>3461.103427239349</v>
+        <v>3461.103427239351</v>
       </c>
       <c r="X32" t="n">
-        <v>3049.383428407096</v>
+        <v>3049.383428407098</v>
       </c>
       <c r="Y32" t="n">
-        <v>2644.046158361987</v>
+        <v>2644.046158361989</v>
       </c>
     </row>
     <row r="33">
@@ -6767,31 +6767,31 @@
         <v>325.9522461396877</v>
       </c>
       <c r="F33" t="n">
-        <v>232.3064158225918</v>
+        <v>232.3064158225919</v>
       </c>
       <c r="G33" t="n">
         <v>139.2029518759959</v>
       </c>
       <c r="H33" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="I33" t="n">
-        <v>111.0619941193675</v>
+        <v>111.0619941193676</v>
       </c>
       <c r="J33" t="n">
         <v>178.6535546454099</v>
       </c>
       <c r="K33" t="n">
-        <v>306.8784564275804</v>
+        <v>772.1079505752109</v>
       </c>
       <c r="L33" t="n">
-        <v>486.820073747137</v>
+        <v>952.0495678947675</v>
       </c>
       <c r="M33" t="n">
-        <v>699.9489449392761</v>
+        <v>1165.178439086907</v>
       </c>
       <c r="N33" t="n">
-        <v>921.0601079659309</v>
+        <v>1386.289602113561</v>
       </c>
       <c r="O33" t="n">
         <v>1584.952401991136</v>
@@ -6837,28 +6837,28 @@
         <v>1146.346678676605</v>
       </c>
       <c r="C34" t="n">
-        <v>974.374115555521</v>
+        <v>974.3741155555211</v>
       </c>
       <c r="D34" t="n">
-        <v>811.0573426822917</v>
+        <v>811.0573426822918</v>
       </c>
       <c r="E34" t="n">
-        <v>644.8491368351453</v>
+        <v>644.8491368351454</v>
       </c>
       <c r="F34" t="n">
-        <v>472.9873626097057</v>
+        <v>472.9873626097058</v>
       </c>
       <c r="G34" t="n">
-        <v>307.5270990705634</v>
+        <v>307.5270990705635</v>
       </c>
       <c r="H34" t="n">
         <v>170.8142726783522</v>
       </c>
       <c r="I34" t="n">
-        <v>95.00483168405813</v>
+        <v>95.00483168405817</v>
       </c>
       <c r="J34" t="n">
-        <v>207.7023760816316</v>
+        <v>207.7023760816317</v>
       </c>
       <c r="K34" t="n">
         <v>524.9507491398861</v>
@@ -6870,10 +6870,10 @@
         <v>1509.319274788412</v>
       </c>
       <c r="N34" t="n">
-        <v>2006.302393848466</v>
+        <v>2006.302393848465</v>
       </c>
       <c r="O34" t="n">
-        <v>2472.100362963392</v>
+        <v>2472.100362963391</v>
       </c>
       <c r="P34" t="n">
         <v>2857.140040356698</v>
@@ -6888,7 +6888,7 @@
         <v>2882.059414879889</v>
       </c>
       <c r="T34" t="n">
-        <v>2642.124175272279</v>
+        <v>2642.12417527228</v>
       </c>
       <c r="U34" t="n">
         <v>2361.983183472581</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1686.851259936749</v>
+        <v>1759.300470034717</v>
       </c>
       <c r="C35" t="n">
-        <v>1259.950529950049</v>
+        <v>1332.399740048017</v>
       </c>
       <c r="D35" t="n">
-        <v>836.6579091350495</v>
+        <v>909.1071192330176</v>
       </c>
       <c r="E35" t="n">
-        <v>410.6809692829071</v>
+        <v>483.1301793808751</v>
       </c>
       <c r="F35" t="n">
-        <v>410.6809692829071</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="G35" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="H35" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I35" t="n">
-        <v>90.91480028220244</v>
+        <v>90.91480028220245</v>
       </c>
       <c r="J35" t="n">
         <v>601.2643569468831</v>
@@ -6946,43 +6946,43 @@
         <v>1024.068924402387</v>
       </c>
       <c r="M35" t="n">
-        <v>1438.44970673489</v>
+        <v>1292.676823437122</v>
       </c>
       <c r="N35" t="n">
-        <v>1712.15370625848</v>
+        <v>1566.380822960712</v>
       </c>
       <c r="O35" t="n">
-        <v>1968.437651724235</v>
+        <v>1822.664768426467</v>
       </c>
       <c r="P35" t="n">
-        <v>2181.563657201042</v>
+        <v>2181.563657201043</v>
       </c>
       <c r="Q35" t="n">
-        <v>2825.633247504618</v>
+        <v>2825.633247504619</v>
       </c>
       <c r="R35" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="S35" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="T35" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="U35" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="V35" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="W35" t="n">
-        <v>2503.908528814111</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="X35" t="n">
-        <v>2092.188529981859</v>
+        <v>2488.579879681512</v>
       </c>
       <c r="Y35" t="n">
-        <v>1686.851259936749</v>
+        <v>2179.148834326247</v>
       </c>
     </row>
     <row r="36">
@@ -6998,10 +6998,10 @@
         <v>497.4953042376826</v>
       </c>
       <c r="D36" t="n">
-        <v>393.6553457529676</v>
+        <v>393.6553457529677</v>
       </c>
       <c r="E36" t="n">
-        <v>288.9534120259048</v>
+        <v>288.9534120259049</v>
       </c>
       <c r="F36" t="n">
         <v>195.307581708809</v>
@@ -7010,34 +7010,34 @@
         <v>102.204117762213</v>
       </c>
       <c r="H36" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I36" t="n">
-        <v>97.52046584999653</v>
+        <v>97.52046584999654</v>
       </c>
       <c r="J36" t="n">
-        <v>165.1120263760388</v>
+        <v>457.2145188456299</v>
       </c>
       <c r="K36" t="n">
-        <v>293.3369281582094</v>
+        <v>585.4394206278005</v>
       </c>
       <c r="L36" t="n">
-        <v>473.278545477766</v>
+        <v>809.5952334960791</v>
       </c>
       <c r="M36" t="n">
-        <v>686.407416669905</v>
+        <v>1022.724104688218</v>
       </c>
       <c r="N36" t="n">
-        <v>1349.290767999779</v>
+        <v>1243.835267714873</v>
       </c>
       <c r="O36" t="n">
-        <v>1547.953567877353</v>
+        <v>1442.498067592447</v>
       </c>
       <c r="P36" t="n">
-        <v>1704.256355936392</v>
+        <v>1598.800855651486</v>
       </c>
       <c r="Q36" t="n">
-        <v>1800.628761030243</v>
+        <v>1695.173260745337</v>
       </c>
       <c r="R36" t="n">
         <v>1835.020868307608</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>997.1207035308894</v>
+        <v>1109.347844562822</v>
       </c>
       <c r="C37" t="n">
-        <v>825.1481404098054</v>
+        <v>937.3752814417383</v>
       </c>
       <c r="D37" t="n">
-        <v>661.8313675365761</v>
+        <v>774.058508568509</v>
       </c>
       <c r="E37" t="n">
-        <v>495.6231616894296</v>
+        <v>607.8503027213625</v>
       </c>
       <c r="F37" t="n">
-        <v>323.76138746399</v>
+        <v>435.9885284959229</v>
       </c>
       <c r="G37" t="n">
         <v>270.5282649567806</v>
@@ -7092,7 +7092,7 @@
         <v>133.8154385645693</v>
       </c>
       <c r="I37" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="J37" t="n">
         <v>170.7035419678488</v>
@@ -7116,31 +7116,31 @@
         <v>2820.141206242915</v>
       </c>
       <c r="Q37" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="R37" t="n">
-        <v>2889.084071565755</v>
+        <v>2889.084071565756</v>
       </c>
       <c r="S37" t="n">
-        <v>2732.833439734173</v>
+        <v>2732.833439734174</v>
       </c>
       <c r="T37" t="n">
-        <v>2492.898200126564</v>
+        <v>2605.125341158497</v>
       </c>
       <c r="U37" t="n">
-        <v>2212.757208326866</v>
+        <v>2324.984349358799</v>
       </c>
       <c r="V37" t="n">
-        <v>1931.045740934895</v>
+        <v>2043.272881966828</v>
       </c>
       <c r="W37" t="n">
-        <v>1656.193337107408</v>
+        <v>1768.420478139341</v>
       </c>
       <c r="X37" t="n">
-        <v>1413.629440553213</v>
+        <v>1525.856581585146</v>
       </c>
       <c r="Y37" t="n">
-        <v>1187.286672242955</v>
+        <v>1299.513813274888</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>908.1993483719749</v>
+        <v>740.2476325705527</v>
       </c>
       <c r="C38" t="n">
-        <v>481.298618385275</v>
+        <v>740.2476325705527</v>
       </c>
       <c r="D38" t="n">
-        <v>58.00599757027528</v>
+        <v>740.2476325705527</v>
       </c>
       <c r="E38" t="n">
-        <v>58.00599757027528</v>
+        <v>740.2476325705527</v>
       </c>
       <c r="F38" t="n">
-        <v>58.00599757027528</v>
+        <v>740.2476325705527</v>
       </c>
       <c r="G38" t="n">
-        <v>58.00599757027528</v>
+        <v>337.684689891903</v>
       </c>
       <c r="H38" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I38" t="n">
-        <v>90.91480028220244</v>
+        <v>90.91480028220245</v>
       </c>
       <c r="J38" t="n">
         <v>601.2643569468831</v>
       </c>
       <c r="K38" t="n">
-        <v>787.2905036090001</v>
+        <v>933.063386906769</v>
       </c>
       <c r="L38" t="n">
-        <v>1024.068924402387</v>
+        <v>1169.841807700156</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.893144334543</v>
+        <v>1438.449706734891</v>
       </c>
       <c r="N38" t="n">
-        <v>2015.597143858134</v>
+        <v>1712.153706258481</v>
       </c>
       <c r="O38" t="n">
-        <v>2271.881089323888</v>
+        <v>1968.437651724236</v>
       </c>
       <c r="P38" t="n">
-        <v>2521.173906286025</v>
+        <v>2181.563657201043</v>
       </c>
       <c r="Q38" t="n">
-        <v>2673.394589226867</v>
+        <v>2825.633247504619</v>
       </c>
       <c r="R38" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="S38" t="n">
-        <v>2900.299878513764</v>
+        <v>2836.405912777614</v>
       </c>
       <c r="T38" t="n">
-        <v>2687.149271684797</v>
+        <v>2623.255305948646</v>
       </c>
       <c r="U38" t="n">
-        <v>2687.149271684797</v>
+        <v>2365.042486123611</v>
       </c>
       <c r="V38" t="n">
-        <v>2541.496331240521</v>
+        <v>2007.55307124986</v>
       </c>
       <c r="W38" t="n">
-        <v>2145.104981540867</v>
+        <v>1611.161721550207</v>
       </c>
       <c r="X38" t="n">
-        <v>1733.384982708615</v>
+        <v>1199.441722717954</v>
       </c>
       <c r="Y38" t="n">
-        <v>1328.047712663505</v>
+        <v>794.1044526728446</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>497.4953042376826</v>
       </c>
       <c r="D39" t="n">
-        <v>393.6553457529676</v>
+        <v>393.6553457529677</v>
       </c>
       <c r="E39" t="n">
-        <v>288.9534120259048</v>
+        <v>288.9534120259049</v>
       </c>
       <c r="F39" t="n">
         <v>195.307581708809</v>
@@ -7247,13 +7247,13 @@
         <v>102.204117762213</v>
       </c>
       <c r="H39" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="I39" t="n">
-        <v>97.52046584999653</v>
+        <v>74.06316000558471</v>
       </c>
       <c r="J39" t="n">
-        <v>165.1120263760388</v>
+        <v>141.654720531627</v>
       </c>
       <c r="K39" t="n">
         <v>735.1091164614281</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>997.1207035308894</v>
+        <v>1109.347844562822</v>
       </c>
       <c r="C40" t="n">
         <v>937.3752814417383</v>
@@ -7329,7 +7329,7 @@
         <v>133.8154385645693</v>
       </c>
       <c r="I40" t="n">
-        <v>58.00599757027528</v>
+        <v>58.00599757027531</v>
       </c>
       <c r="J40" t="n">
         <v>170.7035419678488</v>
@@ -7341,43 +7341,43 @@
         <v>958.7325902230618</v>
       </c>
       <c r="M40" t="n">
-        <v>1360.093299642697</v>
+        <v>1360.093299642698</v>
       </c>
       <c r="N40" t="n">
-        <v>1857.07641870275</v>
+        <v>1857.076418702751</v>
       </c>
       <c r="O40" t="n">
-        <v>2322.874387817676</v>
+        <v>2322.874387817677</v>
       </c>
       <c r="P40" t="n">
-        <v>2707.914065210982</v>
+        <v>2707.914065210983</v>
       </c>
       <c r="Q40" t="n">
-        <v>2900.299878513764</v>
+        <v>2900.299878513765</v>
       </c>
       <c r="R40" t="n">
-        <v>2889.084071565755</v>
+        <v>2889.084071565756</v>
       </c>
       <c r="S40" t="n">
-        <v>2732.833439734173</v>
+        <v>2732.833439734174</v>
       </c>
       <c r="T40" t="n">
-        <v>2492.898200126564</v>
+        <v>2492.898200126565</v>
       </c>
       <c r="U40" t="n">
-        <v>2212.757208326866</v>
+        <v>2212.757208326867</v>
       </c>
       <c r="V40" t="n">
-        <v>1931.045740934895</v>
+        <v>1931.045740934896</v>
       </c>
       <c r="W40" t="n">
-        <v>1656.193337107408</v>
+        <v>1656.193337107409</v>
       </c>
       <c r="X40" t="n">
-        <v>1413.629440553213</v>
+        <v>1413.629440553214</v>
       </c>
       <c r="Y40" t="n">
-        <v>1187.286672242955</v>
+        <v>1299.513813274888</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>887.1921849154825</v>
+        <v>954.4793768292093</v>
       </c>
       <c r="C41" t="n">
-        <v>460.2914549287826</v>
+        <v>527.5786468425094</v>
       </c>
       <c r="D41" t="n">
-        <v>36.99883411378286</v>
+        <v>104.2860260275097</v>
       </c>
       <c r="E41" t="n">
-        <v>36.99883411378286</v>
+        <v>104.2860260275097</v>
       </c>
       <c r="F41" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="G41" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="H41" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I41" t="n">
-        <v>69.90763682570991</v>
+        <v>69.90763682571001</v>
       </c>
       <c r="J41" t="n">
-        <v>188.5279747827644</v>
+        <v>188.5279747827646</v>
       </c>
       <c r="K41" t="n">
-        <v>374.5541214448813</v>
+        <v>374.5541214448815</v>
       </c>
       <c r="L41" t="n">
-        <v>611.3325422382679</v>
+        <v>611.3325422382682</v>
       </c>
       <c r="M41" t="n">
         <v>879.9404412730034</v>
@@ -7426,37 +7426,37 @@
         <v>1153.644440796594</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.928386262348</v>
+        <v>1409.928386262349</v>
       </c>
       <c r="P41" t="n">
         <v>1623.054391739155</v>
       </c>
       <c r="Q41" t="n">
-        <v>1775.275074679996</v>
+        <v>1775.275074679997</v>
       </c>
       <c r="R41" t="n">
         <v>1849.941705689143</v>
       </c>
       <c r="S41" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="T41" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="V41" t="n">
-        <v>1849.941705689143</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="W41" t="n">
-        <v>1453.55035598949</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="X41" t="n">
-        <v>1041.830357157237</v>
+        <v>1374.327741120739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1041.830357157237</v>
+        <v>1374.327741120739</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>81.1969543057206</v>
       </c>
       <c r="H42" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I42" t="n">
-        <v>53.05599654909226</v>
+        <v>76.51330239350411</v>
       </c>
       <c r="J42" t="n">
-        <v>120.6475570751346</v>
+        <v>436.2073553891375</v>
       </c>
       <c r="K42" t="n">
-        <v>248.8724588573051</v>
+        <v>564.432257171308</v>
       </c>
       <c r="L42" t="n">
-        <v>428.8140761768618</v>
+        <v>744.3738744908646</v>
       </c>
       <c r="M42" t="n">
-        <v>764.9675321003177</v>
+        <v>957.5027456830037</v>
       </c>
       <c r="N42" t="n">
-        <v>1222.828104258381</v>
+        <v>1178.613908709659</v>
       </c>
       <c r="O42" t="n">
-        <v>1421.490904135955</v>
+        <v>1377.276708587233</v>
       </c>
       <c r="P42" t="n">
-        <v>1577.793692194994</v>
+        <v>1533.579496646272</v>
       </c>
       <c r="Q42" t="n">
         <v>1674.166097288845</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>619.9593853278298</v>
+        <v>636.9338578397526</v>
       </c>
       <c r="C43" t="n">
-        <v>447.9868222067457</v>
+        <v>464.9612947186686</v>
       </c>
       <c r="D43" t="n">
-        <v>284.6700493335164</v>
+        <v>301.6445218454393</v>
       </c>
       <c r="E43" t="n">
-        <v>284.6700493335164</v>
+        <v>249.5211015002882</v>
       </c>
       <c r="F43" t="n">
-        <v>112.8082751080769</v>
+        <v>249.5211015002882</v>
       </c>
       <c r="G43" t="n">
-        <v>112.8082751080769</v>
+        <v>249.5211015002882</v>
       </c>
       <c r="H43" t="n">
         <v>112.8082751080769</v>
       </c>
       <c r="I43" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="J43" t="n">
         <v>71.77466186313546</v>
       </c>
       <c r="K43" t="n">
-        <v>389.0230349213899</v>
+        <v>141.7404258073679</v>
       </c>
       <c r="L43" t="n">
-        <v>846.8836070794528</v>
+        <v>599.6009979654309</v>
       </c>
       <c r="M43" t="n">
-        <v>946.9359770681988</v>
+        <v>699.6533679541769</v>
       </c>
       <c r="N43" t="n">
-        <v>1404.796549226262</v>
+        <v>1157.51394011224</v>
       </c>
       <c r="O43" t="n">
-        <v>1492.892194037984</v>
+        <v>1615.374512270303</v>
       </c>
       <c r="P43" t="n">
-        <v>1808.92938976426</v>
+        <v>1808.929389764261</v>
       </c>
       <c r="Q43" t="n">
         <v>1849.941705689143</v>
       </c>
       <c r="R43" t="n">
-        <v>1838.725898741134</v>
+        <v>1849.941705689143</v>
       </c>
       <c r="S43" t="n">
-        <v>1838.725898741134</v>
+        <v>1849.941705689143</v>
       </c>
       <c r="T43" t="n">
-        <v>1838.725898741134</v>
+        <v>1610.006466081534</v>
       </c>
       <c r="U43" t="n">
-        <v>1558.584906941436</v>
+        <v>1610.006466081534</v>
       </c>
       <c r="V43" t="n">
-        <v>1363.71845401977</v>
+        <v>1328.294998689563</v>
       </c>
       <c r="W43" t="n">
-        <v>1088.866050192283</v>
+        <v>1053.442594862076</v>
       </c>
       <c r="X43" t="n">
-        <v>846.3021536380877</v>
+        <v>1053.442594862076</v>
       </c>
       <c r="Y43" t="n">
-        <v>619.9593853278298</v>
+        <v>827.0998265518183</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1168.70243823271</v>
+        <v>1738.293306578225</v>
       </c>
       <c r="C44" t="n">
-        <v>741.8017082460103</v>
+        <v>1311.392576591525</v>
       </c>
       <c r="D44" t="n">
-        <v>741.8017082460103</v>
+        <v>888.0999557765251</v>
       </c>
       <c r="E44" t="n">
-        <v>741.8017082460103</v>
+        <v>462.1230159243827</v>
       </c>
       <c r="F44" t="n">
-        <v>316.6775264354105</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6775264354105</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="H44" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I44" t="n">
-        <v>69.90763682571003</v>
+        <v>69.90763682570991</v>
       </c>
       <c r="J44" t="n">
-        <v>188.5279747827646</v>
+        <v>188.5279747827645</v>
       </c>
       <c r="K44" t="n">
-        <v>374.5541214448815</v>
+        <v>374.5541214448816</v>
       </c>
       <c r="L44" t="n">
-        <v>611.332542238268</v>
+        <v>611.3325422382682</v>
       </c>
       <c r="M44" t="n">
-        <v>879.9404412730034</v>
+        <v>879.9404412730037</v>
       </c>
       <c r="N44" t="n">
         <v>1153.644440796594</v>
@@ -7678,22 +7678,22 @@
         <v>1786.047739952992</v>
       </c>
       <c r="T44" t="n">
-        <v>1572.897133124024</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="U44" t="n">
-        <v>1314.684313298989</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="V44" t="n">
-        <v>1168.70243823271</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="W44" t="n">
-        <v>1168.70243823271</v>
+        <v>1786.047739952992</v>
       </c>
       <c r="X44" t="n">
-        <v>1168.70243823271</v>
+        <v>1738.293306578225</v>
       </c>
       <c r="Y44" t="n">
-        <v>1168.70243823271</v>
+        <v>1738.293306578225</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>81.1969543057206</v>
       </c>
       <c r="H45" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I45" t="n">
-        <v>76.51330239350409</v>
+        <v>76.51330239350411</v>
       </c>
       <c r="J45" t="n">
-        <v>284.3192671237416</v>
+        <v>436.2073553891375</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5441689059121</v>
+        <v>564.432257171308</v>
       </c>
       <c r="L45" t="n">
-        <v>592.4857862254687</v>
+        <v>744.3738744908646</v>
       </c>
       <c r="M45" t="n">
-        <v>805.6146574176078</v>
+        <v>957.5027456830037</v>
       </c>
       <c r="N45" t="n">
-        <v>1026.725820444263</v>
+        <v>1178.613908709659</v>
       </c>
       <c r="O45" t="n">
-        <v>1225.388620321837</v>
+        <v>1377.276708587233</v>
       </c>
       <c r="P45" t="n">
-        <v>1683.2491924799</v>
+        <v>1533.579496646272</v>
       </c>
       <c r="Q45" t="n">
-        <v>1779.62159757375</v>
+        <v>1674.166097288845</v>
       </c>
       <c r="R45" t="n">
         <v>1814.013704851116</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.99883411378286</v>
+        <v>703.1377019935286</v>
       </c>
       <c r="C46" t="n">
-        <v>36.99883411378286</v>
+        <v>531.1651388724446</v>
       </c>
       <c r="D46" t="n">
-        <v>36.99883411378286</v>
+        <v>511.033698270576</v>
       </c>
       <c r="E46" t="n">
-        <v>36.99883411378286</v>
+        <v>511.033698270576</v>
       </c>
       <c r="F46" t="n">
-        <v>36.99883411378286</v>
+        <v>339.1719240451364</v>
       </c>
       <c r="G46" t="n">
-        <v>36.99883411378286</v>
+        <v>173.7116605059941</v>
       </c>
       <c r="H46" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="I46" t="n">
-        <v>36.99883411378286</v>
+        <v>36.99883411378287</v>
       </c>
       <c r="J46" t="n">
         <v>149.6963785113563</v>
@@ -7812,19 +7812,19 @@
         <v>466.9447515696108</v>
       </c>
       <c r="L46" t="n">
-        <v>561.3365331754044</v>
+        <v>924.8053237276738</v>
       </c>
       <c r="M46" t="n">
-        <v>877.9334954011683</v>
+        <v>1024.85769371642</v>
       </c>
       <c r="N46" t="n">
-        <v>1335.794067559231</v>
+        <v>1123.807889934593</v>
       </c>
       <c r="O46" t="n">
-        <v>1423.889712370954</v>
+        <v>1272.516214993055</v>
       </c>
       <c r="P46" t="n">
-        <v>1808.92938976426</v>
+        <v>1657.555892386361</v>
       </c>
       <c r="Q46" t="n">
         <v>1849.941705689143</v>
@@ -7833,25 +7833,25 @@
         <v>1849.941705689143</v>
       </c>
       <c r="S46" t="n">
-        <v>1693.691073857561</v>
+        <v>1693.691073857562</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.755834249952</v>
+        <v>1453.755834249953</v>
       </c>
       <c r="U46" t="n">
-        <v>1173.614842450254</v>
+        <v>1453.755834249953</v>
       </c>
       <c r="V46" t="n">
-        <v>891.9033750582832</v>
+        <v>1172.044366857981</v>
       </c>
       <c r="W46" t="n">
-        <v>617.0509712307962</v>
+        <v>1172.044366857981</v>
       </c>
       <c r="X46" t="n">
-        <v>374.4870746766013</v>
+        <v>929.4804703037865</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.1443063663433</v>
+        <v>703.1377019935286</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>332.9653236120126</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>151.1815109430583</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>30.4427509968003</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,13 +8856,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>361.4224264336534</v>
+        <v>361.4224264336535</v>
       </c>
       <c r="N13" t="n">
-        <v>362.5357332726161</v>
+        <v>362.5357332726162</v>
       </c>
       <c r="O13" t="n">
-        <v>185.7987028585289</v>
+        <v>185.7987028585293</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>239.1408173044525</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.2672573043605</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>365.1395626911235</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>81.09497094849149</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>367.1401924770396</v>
+        <v>128.2141344009207</v>
       </c>
       <c r="M16" t="n">
-        <v>43.78756366236161</v>
+        <v>361.4224264336535</v>
       </c>
       <c r="N16" t="n">
-        <v>362.535733272616</v>
+        <v>362.5357332726162</v>
       </c>
       <c r="O16" t="n">
-        <v>373.4999266124645</v>
+        <v>373.4999266124647</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>537.1697709798382</v>
+        <v>537.1697709798384</v>
       </c>
       <c r="L17" t="n">
-        <v>348.8023008286241</v>
+        <v>106.8926438287513</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>446.2345336396149</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.35505191225653</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>304.3518580110003</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>268.1567507790608</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>453.7538594923446</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>509.7961762175252</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.19845860137073</v>
+        <v>490.2859923058111</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>469.9287819673036</v>
       </c>
       <c r="L21" t="n">
-        <v>363.4080746088131</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9567,10 +9567,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>383.0606627061711</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>288.6927088989379</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>313.2150974575345</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>313.215097457536</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>174.8757592707469</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>44.66080358456756</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>155.4760769594293</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>916.2392859146305</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>180.6429387192375</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>174.8757592707469</v>
+        <v>469.9287819673035</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>180.6429387192374</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>313.2150974575342</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>44.66080358456762</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>174.875759270747</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>180.6429387192374</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>916.2392859146304</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>155.4760769594296</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>469.9287819673035</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>469.9287819673036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>147.245336664412</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>147.2453366644129</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10664,19 +10664,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>44.6608035845677</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>446.2345336396148</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.54177408683431</v>
+        <v>39.54177408683523</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>147.2453366644131</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>453.7538594923448</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>36.53213281346484</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>446.234533639615</v>
+        <v>469.9287819673036</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>304.3518580109989</v>
+        <v>304.3518580109998</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>124.2672573043605</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>239.1408173044525</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>44.66080358456756</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>367.1401924770396</v>
+        <v>367.1401924770398</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>362.535733272616</v>
+        <v>362.5357332726162</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>373.4999266124647</v>
       </c>
       <c r="P43" t="n">
-        <v>246.215881723512</v>
+        <v>122.4963683575344</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6307113173688</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>304.6038223222459</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>44.66080358456756</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,22 +11460,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>367.1401924770398</v>
       </c>
       <c r="M46" t="n">
-        <v>218.7319113505231</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>362.5357332726161</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.22492954216106</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>325.7282013484217</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23266,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.25502607878983</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>255.6306916267852</v>
       </c>
       <c r="V11" t="n">
-        <v>274.8593665739101</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>128.584053368555</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8056609037509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.05134658435109</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>200.220990380534</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>130.7986850807134</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5373132518632</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>276.8819053984114</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.25502607878983</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.0191007606778</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6306916267852</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>158.8120851480194</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>163.8056609037509</v>
       </c>
       <c r="H16" t="n">
-        <v>135.3456981282891</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.05134658435109</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.10364887852915</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.688125513266</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.535887211533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.339581881701</v>
       </c>
       <c r="V16" t="n">
-        <v>75.29241979464075</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>138.0188936033448</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.9780144819092</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5373132518632</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.0191007606778</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6306916267852</v>
+        <v>227.6955282786715</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>100.001220743083</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.10364887852915</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>111.1048696216133</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5373132518632</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>276.8819053984114</v>
+        <v>268.9085068472868</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.0191007606778</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6306916267852</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>306.6765500214951</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.10364887852915</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.104869621614</v>
+        <v>100.0012207430831</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>251.7997136275376</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>251.7997136275359</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>251.799713627536</v>
       </c>
       <c r="D26" t="n">
-        <v>251.7997136275377</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.7806128668581</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.0191007606778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.7997136275376</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>251.7997136275359</v>
       </c>
       <c r="H32" t="n">
-        <v>251.7997136275377</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.38909125635774</v>
+        <v>398.5373132518632</v>
       </c>
       <c r="H35" t="n">
         <v>276.8819053984114</v>
@@ -25216,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>94.94716244294597</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>111.1048696216136</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>111.1048696216123</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>362.3316287473458</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5373132518632</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>276.8819053984114</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.25502607878983</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6306916267852</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>209.7181096851795</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>111.1048696216135</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>111.1048696216127</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.5580901292778</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>354.2586199979042</v>
       </c>
       <c r="G41" t="n">
         <v>398.5373132518632</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.25502607878983</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.0191007606778</v>
@@ -25690,7 +25690,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>112.9439376469754</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.8056609037509</v>
       </c>
       <c r="H43" t="n">
-        <v>135.3456981282891</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.10364887852915</v>
       </c>
       <c r="S43" t="n">
         <v>154.688125513266</v>
       </c>
       <c r="T43" t="n">
-        <v>237.535887211533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.339581881701</v>
       </c>
       <c r="V43" t="n">
-        <v>85.97656432560206</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>398.5373132518632</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>276.8819053984114</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.0191007606778</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6306916267852</v>
       </c>
       <c r="V44" t="n">
-        <v>209.3924644093971</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>360.3259098029105</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.23029149491013</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>141.7534789486471</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8056609037509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.3456981282891</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>75.05134658435109</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.339581881701</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>292116.4090502298</v>
+        <v>292116.4090502299</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>427581.1489637164</v>
+        <v>427581.1489637166</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>427581.1489637163</v>
+        <v>427581.1489637166</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>614318.5434652509</v>
+        <v>614318.5434652511</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614318.5434652509</v>
+        <v>614318.5434652511</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>614318.5434652509</v>
+        <v>614318.543465251</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>614318.5434652509</v>
+        <v>614318.5434652511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>427581.1489637164</v>
+        <v>427581.1489637166</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>427581.1489637164</v>
+        <v>427581.1489637165</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292116.4090502298</v>
+        <v>292116.4090502299</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>292116.4090502298</v>
+        <v>292116.4090502299</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502037.5599860537</v>
+        <v>502037.5599860538</v>
       </c>
       <c r="C2" t="n">
         <v>502037.5599860538</v>
@@ -26322,7 +26322,7 @@
         <v>502037.5599860538</v>
       </c>
       <c r="E2" t="n">
-        <v>272379.9635891555</v>
+        <v>272379.9635891556</v>
       </c>
       <c r="F2" t="n">
         <v>272379.9635891556</v>
@@ -26331,28 +26331,28 @@
         <v>364757.5258983843</v>
       </c>
       <c r="H2" t="n">
-        <v>364757.5258983842</v>
+        <v>364757.5258983844</v>
       </c>
       <c r="I2" t="n">
-        <v>492099.4844556094</v>
+        <v>492099.4844556097</v>
       </c>
       <c r="J2" t="n">
-        <v>492099.4844556098</v>
+        <v>492099.4844556097</v>
       </c>
       <c r="K2" t="n">
-        <v>492099.4844556097</v>
+        <v>492099.4844556096</v>
       </c>
       <c r="L2" t="n">
         <v>492099.4844556098</v>
       </c>
       <c r="M2" t="n">
-        <v>364757.5258983842</v>
+        <v>364757.5258983843</v>
       </c>
       <c r="N2" t="n">
         <v>364757.5258983842</v>
       </c>
       <c r="O2" t="n">
-        <v>272379.9635891553</v>
+        <v>272379.9635891555</v>
       </c>
       <c r="P2" t="n">
         <v>272379.9635891556</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71971.85494965907</v>
+        <v>71971.85494965916</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26429,19 +26429,19 @@
         <v>20135.18229745972</v>
       </c>
       <c r="F4" t="n">
-        <v>20135.18229745971</v>
+        <v>20135.18229745972</v>
       </c>
       <c r="G4" t="n">
-        <v>63383.93681773351</v>
+        <v>63383.93681773356</v>
       </c>
       <c r="H4" t="n">
-        <v>63383.9368177335</v>
+        <v>63383.93681773357</v>
       </c>
       <c r="I4" t="n">
         <v>123002.1056468338</v>
       </c>
       <c r="J4" t="n">
-        <v>123002.1056468337</v>
+        <v>123002.1056468338</v>
       </c>
       <c r="K4" t="n">
         <v>123002.1056468338</v>
@@ -26450,16 +26450,16 @@
         <v>123002.1056468338</v>
       </c>
       <c r="M4" t="n">
-        <v>63383.93681773353</v>
+        <v>63383.93681773357</v>
       </c>
       <c r="N4" t="n">
-        <v>63383.93681773353</v>
+        <v>63383.93681773357</v>
       </c>
       <c r="O4" t="n">
         <v>20135.18229745972</v>
       </c>
       <c r="P4" t="n">
-        <v>20135.18229745971</v>
+        <v>20135.18229745972</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37654.2526698828</v>
+        <v>37654.25266988282</v>
       </c>
       <c r="F5" t="n">
-        <v>37654.2526698828</v>
+        <v>37654.25266988282</v>
       </c>
       <c r="G5" t="n">
-        <v>53619.69689681704</v>
+        <v>53619.69689681707</v>
       </c>
       <c r="H5" t="n">
-        <v>53619.69689681704</v>
+        <v>53619.69689681707</v>
       </c>
       <c r="I5" t="n">
-        <v>81738.81082329202</v>
+        <v>81738.81082329205</v>
       </c>
       <c r="J5" t="n">
-        <v>81738.81082329202</v>
+        <v>81738.81082329205</v>
       </c>
       <c r="K5" t="n">
-        <v>81738.81082329202</v>
+        <v>81738.81082329205</v>
       </c>
       <c r="L5" t="n">
-        <v>81738.81082329202</v>
+        <v>81738.81082329205</v>
       </c>
       <c r="M5" t="n">
-        <v>53619.69689681704</v>
+        <v>53619.69689681705</v>
       </c>
       <c r="N5" t="n">
-        <v>53619.69689681704</v>
+        <v>53619.69689681705</v>
       </c>
       <c r="O5" t="n">
-        <v>37654.2526698828</v>
+        <v>37654.25266988282</v>
       </c>
       <c r="P5" t="n">
-        <v>37654.25266988281</v>
+        <v>37654.25266988282</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147634.433168393</v>
+        <v>147612.7195268967</v>
       </c>
       <c r="C6" t="n">
-        <v>147634.433168393</v>
+        <v>147612.7195268968</v>
       </c>
       <c r="D6" t="n">
-        <v>147634.433168393</v>
+        <v>147612.7195268967</v>
       </c>
       <c r="E6" t="n">
-        <v>-274899.2373161187</v>
+        <v>-275577.1155187489</v>
       </c>
       <c r="F6" t="n">
-        <v>214590.528621813</v>
+        <v>213912.6504191827</v>
       </c>
       <c r="G6" t="n">
-        <v>175782.0372341747</v>
+        <v>175368.0949238563</v>
       </c>
       <c r="H6" t="n">
-        <v>247753.8921838336</v>
+        <v>247339.9498735155</v>
       </c>
       <c r="I6" t="n">
-        <v>164373.980905843</v>
+        <v>164323.8727628312</v>
       </c>
       <c r="J6" t="n">
-        <v>287358.567985484</v>
+        <v>287308.4598424719</v>
       </c>
       <c r="K6" t="n">
-        <v>287358.5679854839</v>
+        <v>287308.4598424718</v>
       </c>
       <c r="L6" t="n">
-        <v>287358.567985484</v>
+        <v>287308.459842472</v>
       </c>
       <c r="M6" t="n">
-        <v>247753.8921838336</v>
+        <v>247339.9498735154</v>
       </c>
       <c r="N6" t="n">
-        <v>247753.8921838336</v>
+        <v>247339.9498735153</v>
       </c>
       <c r="O6" t="n">
-        <v>214590.5286218128</v>
+        <v>213912.6504191826</v>
       </c>
       <c r="P6" t="n">
-        <v>214590.5286218131</v>
+        <v>213912.6504191828</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="F4" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="G4" t="n">
-        <v>725.0749696284411</v>
+        <v>725.0749696284414</v>
       </c>
       <c r="H4" t="n">
-        <v>725.074969628441</v>
+        <v>725.0749696284414</v>
       </c>
       <c r="I4" t="n">
         <v>1187.560396050727</v>
@@ -26822,16 +26822,16 @@
         <v>1187.560396050727</v>
       </c>
       <c r="M4" t="n">
-        <v>725.0749696284411</v>
+        <v>725.0749696284413</v>
       </c>
       <c r="N4" t="n">
-        <v>725.0749696284411</v>
+        <v>725.0749696284413</v>
       </c>
       <c r="O4" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="P4" t="n">
-        <v>462.4854264222858</v>
+        <v>462.4854264222859</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5895432061553</v>
+        <v>262.5895432061556</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>262.5895432061553</v>
+        <v>262.5895432061556</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.91360432295075</v>
+        <v>16.21935599526202</v>
       </c>
       <c r="J12" t="n">
-        <v>363.3273262582156</v>
+        <v>68.27430356165893</v>
       </c>
       <c r="K12" t="n">
-        <v>129.5201028102733</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="L12" t="n">
         <v>181.7592094136936</v>
@@ -35503,16 +35503,16 @@
         <v>223.3446091178332</v>
       </c>
       <c r="O12" t="n">
-        <v>351.8510057688907</v>
+        <v>200.6694948258324</v>
       </c>
       <c r="P12" t="n">
-        <v>157.8816041000399</v>
+        <v>188.3243550968402</v>
       </c>
       <c r="Q12" t="n">
         <v>97.34586373116238</v>
       </c>
       <c r="R12" t="n">
-        <v>34.73950230036915</v>
+        <v>141.2602096588598</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,13 +35576,13 @@
         <v>95.34523394524604</v>
       </c>
       <c r="M13" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="N13" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="O13" t="n">
-        <v>274.78420266835</v>
+        <v>274.7842026683505</v>
       </c>
       <c r="P13" t="n">
         <v>388.9289670639457</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.21935599526202</v>
+        <v>39.91360432295075</v>
       </c>
       <c r="J15" t="n">
         <v>68.27430356165893</v>
@@ -35737,19 +35737,19 @@
         <v>215.2816880728678</v>
       </c>
       <c r="N15" t="n">
-        <v>462.4854264222857</v>
+        <v>223.3446091178332</v>
       </c>
       <c r="O15" t="n">
         <v>200.6694948258324</v>
       </c>
       <c r="P15" t="n">
-        <v>282.1488614044003</v>
+        <v>157.8816041000399</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.34586373116238</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="R15" t="n">
-        <v>141.2602096588598</v>
+        <v>115.8344732488606</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>113.8359034318924</v>
+        <v>35.1270987367198</v>
       </c>
       <c r="K16" t="n">
         <v>70.672488832558</v>
       </c>
       <c r="L16" t="n">
-        <v>462.4854264222857</v>
+        <v>223.5593683461668</v>
       </c>
       <c r="M16" t="n">
-        <v>144.850563650994</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="N16" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="O16" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="P16" t="n">
         <v>73.01360890908956</v>
@@ -35883,13 +35883,13 @@
         <v>33.24121486053247</v>
       </c>
       <c r="J17" t="n">
-        <v>119.818523188944</v>
+        <v>515.5046026915967</v>
       </c>
       <c r="K17" t="n">
-        <v>725.0749696284411</v>
+        <v>725.0749696284414</v>
       </c>
       <c r="L17" t="n">
-        <v>587.9724228421459</v>
+        <v>346.0627658422732</v>
       </c>
       <c r="M17" t="n">
         <v>271.3211101360963</v>
@@ -35907,7 +35907,7 @@
         <v>153.7582655968095</v>
       </c>
       <c r="R17" t="n">
-        <v>229.1972619059571</v>
+        <v>75.42083940317821</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.21935599526202</v>
+        <v>39.91360432295075</v>
       </c>
       <c r="J18" t="n">
-        <v>363.3273262582156</v>
+        <v>68.27430356165893</v>
       </c>
       <c r="K18" t="n">
-        <v>129.5201028102733</v>
+        <v>575.7546364498882</v>
       </c>
       <c r="L18" t="n">
         <v>181.7592094136936</v>
@@ -35983,10 +35983,10 @@
         <v>157.8816041000399</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7009156434189</v>
+        <v>97.34586373116238</v>
       </c>
       <c r="R18" t="n">
-        <v>141.2602096588598</v>
+        <v>34.73950230036915</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,13 +36050,13 @@
         <v>475.5360355524834</v>
       </c>
       <c r="M19" t="n">
-        <v>518.7756065167353</v>
+        <v>405.4148579996327</v>
       </c>
       <c r="N19" t="n">
         <v>502.0031505657103</v>
       </c>
       <c r="O19" t="n">
-        <v>357.142250588882</v>
+        <v>470.5029991059861</v>
       </c>
       <c r="P19" t="n">
         <v>388.9289670639457</v>
@@ -36120,7 +36120,7 @@
         <v>33.24121486053247</v>
       </c>
       <c r="J20" t="n">
-        <v>119.818523188944</v>
+        <v>515.5046026915967</v>
       </c>
       <c r="K20" t="n">
         <v>187.9051986486029</v>
@@ -36129,7 +36129,7 @@
         <v>239.1701220135218</v>
       </c>
       <c r="M20" t="n">
-        <v>725.074969628441</v>
+        <v>271.3211101360963</v>
       </c>
       <c r="N20" t="n">
         <v>276.468686387465</v>
@@ -36138,13 +36138,13 @@
         <v>258.8726721876311</v>
       </c>
       <c r="P20" t="n">
-        <v>725.074969628441</v>
+        <v>215.2787934109158</v>
       </c>
       <c r="Q20" t="n">
-        <v>229.9567241981802</v>
+        <v>644.0442579026205</v>
       </c>
       <c r="R20" t="n">
-        <v>75.42083940317821</v>
+        <v>229.1972619059571</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>68.27430356165893</v>
       </c>
       <c r="K21" t="n">
-        <v>129.5201028102733</v>
+        <v>599.4488847775768</v>
       </c>
       <c r="L21" t="n">
-        <v>545.1672840225067</v>
+        <v>181.7592094136936</v>
       </c>
       <c r="M21" t="n">
         <v>215.2816880728678</v>
@@ -36223,7 +36223,7 @@
         <v>97.34586373116238</v>
       </c>
       <c r="R21" t="n">
-        <v>141.2602096588598</v>
+        <v>34.73950230036915</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.1270987367198</v>
+        <v>113.8359034318924</v>
       </c>
       <c r="K22" t="n">
         <v>320.4529020790449</v>
@@ -36287,10 +36287,10 @@
         <v>475.5360355524834</v>
       </c>
       <c r="M22" t="n">
-        <v>484.1236626948035</v>
+        <v>518.7756065167353</v>
       </c>
       <c r="N22" t="n">
-        <v>502.0031505657103</v>
+        <v>388.6424020486076</v>
       </c>
       <c r="O22" t="n">
         <v>470.5029991059861</v>
@@ -36369,10 +36369,10 @@
         <v>271.3211101360963</v>
       </c>
       <c r="N23" t="n">
-        <v>589.6837838449994</v>
+        <v>276.468686387465</v>
       </c>
       <c r="O23" t="n">
-        <v>258.8726721876311</v>
+        <v>572.0877696451671</v>
       </c>
       <c r="P23" t="n">
         <v>968.287770532185</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.21935599526202</v>
+        <v>39.91360432295075</v>
       </c>
       <c r="J24" t="n">
         <v>363.3273262582156</v>
@@ -36445,7 +36445,7 @@
         <v>181.7592094136936</v>
       </c>
       <c r="M24" t="n">
-        <v>390.1574473436147</v>
+        <v>215.2816880728678</v>
       </c>
       <c r="N24" t="n">
         <v>223.3446091178332</v>
@@ -36457,10 +36457,10 @@
         <v>157.8816041000399</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.34586373116238</v>
+        <v>142.0066673157299</v>
       </c>
       <c r="R24" t="n">
-        <v>34.73950230036915</v>
+        <v>141.2602096588598</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>515.5046026915967</v>
       </c>
       <c r="K26" t="n">
-        <v>343.3812756080323</v>
+        <v>187.9051986486029</v>
       </c>
       <c r="L26" t="n">
         <v>239.1701220135218</v>
       </c>
       <c r="M26" t="n">
-        <v>1187.560396050727</v>
+        <v>271.3211101360963</v>
       </c>
       <c r="N26" t="n">
-        <v>276.468686387465</v>
+        <v>457.1116251067024</v>
       </c>
       <c r="O26" t="n">
-        <v>258.8726721876311</v>
+        <v>1149.945096342455</v>
       </c>
       <c r="P26" t="n">
         <v>968.287770532185</v>
@@ -36673,10 +36673,10 @@
         <v>16.21935599526202</v>
       </c>
       <c r="J27" t="n">
-        <v>363.3273262582156</v>
+        <v>68.27430356165893</v>
       </c>
       <c r="K27" t="n">
-        <v>304.3958620810202</v>
+        <v>599.4488847775767</v>
       </c>
       <c r="L27" t="n">
         <v>181.7592094136936</v>
@@ -36834,7 +36834,7 @@
         <v>515.5046026915967</v>
       </c>
       <c r="K29" t="n">
-        <v>946.4054640651284</v>
+        <v>368.5481373678404</v>
       </c>
       <c r="L29" t="n">
         <v>239.1701220135218</v>
@@ -36846,7 +36846,7 @@
         <v>276.468686387465</v>
       </c>
       <c r="O29" t="n">
-        <v>572.0877696451653</v>
+        <v>1149.945096342455</v>
       </c>
       <c r="P29" t="n">
         <v>968.287770532185</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.21935599526202</v>
+        <v>39.91360432295075</v>
       </c>
       <c r="J30" t="n">
         <v>363.3273262582156</v>
       </c>
       <c r="K30" t="n">
-        <v>129.5201028102733</v>
+        <v>174.1809063948409</v>
       </c>
       <c r="L30" t="n">
         <v>181.7592094136936</v>
@@ -36925,7 +36925,7 @@
         <v>223.3446091178332</v>
       </c>
       <c r="O30" t="n">
-        <v>375.5452540965794</v>
+        <v>200.6694948258324</v>
       </c>
       <c r="P30" t="n">
         <v>157.8816041000399</v>
@@ -36934,7 +36934,7 @@
         <v>97.34586373116238</v>
       </c>
       <c r="R30" t="n">
-        <v>34.73950230036915</v>
+        <v>141.2602096588598</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>515.5046026915967</v>
       </c>
       <c r="K32" t="n">
-        <v>187.9051986486029</v>
+        <v>368.5481373678404</v>
       </c>
       <c r="L32" t="n">
         <v>239.1701220135218</v>
       </c>
       <c r="M32" t="n">
-        <v>1187.560396050727</v>
+        <v>271.3211101360963</v>
       </c>
       <c r="N32" t="n">
-        <v>431.9447633468945</v>
+        <v>276.468686387465</v>
       </c>
       <c r="O32" t="n">
-        <v>258.8726721876311</v>
+        <v>1149.945096342455</v>
       </c>
       <c r="P32" t="n">
         <v>968.287770532185</v>
@@ -37150,7 +37150,7 @@
         <v>68.27430356165893</v>
       </c>
       <c r="K33" t="n">
-        <v>129.5201028102733</v>
+        <v>599.4488847775767</v>
       </c>
       <c r="L33" t="n">
         <v>181.7592094136936</v>
@@ -37162,7 +37162,7 @@
         <v>223.3446091178332</v>
       </c>
       <c r="O33" t="n">
-        <v>670.5982767931359</v>
+        <v>200.6694948258324</v>
       </c>
       <c r="P33" t="n">
         <v>157.8816041000399</v>
@@ -37314,7 +37314,7 @@
         <v>239.1701220135218</v>
       </c>
       <c r="M35" t="n">
-        <v>418.5664468005083</v>
+        <v>271.3211101360963</v>
       </c>
       <c r="N35" t="n">
         <v>276.468686387465</v>
@@ -37323,7 +37323,7 @@
         <v>258.8726721876311</v>
       </c>
       <c r="P35" t="n">
-        <v>215.2787934109158</v>
+        <v>362.5241300753287</v>
       </c>
       <c r="Q35" t="n">
         <v>650.5753437409863</v>
@@ -37384,19 +37384,19 @@
         <v>39.91360432295075</v>
       </c>
       <c r="J36" t="n">
-        <v>68.27430356165893</v>
+        <v>363.3273262582156</v>
       </c>
       <c r="K36" t="n">
         <v>129.5201028102733</v>
       </c>
       <c r="L36" t="n">
-        <v>181.7592094136936</v>
+        <v>226.4200129982613</v>
       </c>
       <c r="M36" t="n">
         <v>215.2816880728678</v>
       </c>
       <c r="N36" t="n">
-        <v>669.579142757448</v>
+        <v>223.3446091178332</v>
       </c>
       <c r="O36" t="n">
         <v>200.6694948258324</v>
@@ -37408,7 +37408,7 @@
         <v>97.34586373116238</v>
       </c>
       <c r="R36" t="n">
-        <v>34.73950230036915</v>
+        <v>141.2602096588598</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>388.9289670639457</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.96835582914031</v>
+        <v>80.96835582914123</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>515.5046026915967</v>
       </c>
       <c r="K38" t="n">
-        <v>187.9051986486029</v>
+        <v>335.150535313016</v>
       </c>
       <c r="L38" t="n">
         <v>239.1701220135218</v>
       </c>
       <c r="M38" t="n">
-        <v>725.0749696284411</v>
+        <v>271.3211101360963</v>
       </c>
       <c r="N38" t="n">
         <v>276.468686387465</v>
@@ -37560,13 +37560,13 @@
         <v>258.8726721876311</v>
       </c>
       <c r="P38" t="n">
-        <v>251.8109262243806</v>
+        <v>215.2787934109158</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.7582655968095</v>
+        <v>650.5753437409863</v>
       </c>
       <c r="R38" t="n">
-        <v>229.1972619059571</v>
+        <v>75.42083940317821</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.91360432295075</v>
+        <v>16.21935599526202</v>
       </c>
       <c r="J39" t="n">
         <v>68.27430356165893</v>
       </c>
       <c r="K39" t="n">
-        <v>575.7546364498883</v>
+        <v>599.4488847775768</v>
       </c>
       <c r="L39" t="n">
         <v>181.7592094136936</v>
@@ -37709,7 +37709,7 @@
         <v>475.5360355524834</v>
       </c>
       <c r="M40" t="n">
-        <v>405.4148579996313</v>
+        <v>405.4148579996322</v>
       </c>
       <c r="N40" t="n">
         <v>502.0031505657103</v>
@@ -37800,7 +37800,7 @@
         <v>215.2787934109158</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.7582655968095</v>
+        <v>153.75826559681</v>
       </c>
       <c r="R41" t="n">
         <v>75.42083940317821</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.21935599526202</v>
+        <v>39.91360432295075</v>
       </c>
       <c r="J42" t="n">
-        <v>68.27430356165893</v>
+        <v>363.3273262582156</v>
       </c>
       <c r="K42" t="n">
         <v>129.5201028102733</v>
@@ -37867,10 +37867,10 @@
         <v>181.7592094136936</v>
       </c>
       <c r="M42" t="n">
-        <v>339.5489453772283</v>
+        <v>215.2816880728678</v>
       </c>
       <c r="N42" t="n">
-        <v>462.4854264222857</v>
+        <v>223.3446091178332</v>
       </c>
       <c r="O42" t="n">
         <v>200.6694948258324</v>
@@ -37879,7 +37879,7 @@
         <v>157.8816041000399</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.34586373116238</v>
+        <v>142.0066673157299</v>
       </c>
       <c r="R42" t="n">
         <v>141.2602096588598</v>
@@ -37940,22 +37940,22 @@
         <v>35.1270987367198</v>
       </c>
       <c r="K43" t="n">
-        <v>320.4529020790449</v>
+        <v>70.672488832558</v>
       </c>
       <c r="L43" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="M43" t="n">
         <v>101.0629999886324</v>
       </c>
       <c r="N43" t="n">
-        <v>462.4854264222857</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="O43" t="n">
-        <v>88.98549980982115</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="P43" t="n">
-        <v>319.2294906326015</v>
+        <v>195.509977266624</v>
       </c>
       <c r="Q43" t="n">
         <v>41.426581742306</v>
@@ -38095,7 +38095,7 @@
         <v>39.91360432295075</v>
       </c>
       <c r="J45" t="n">
-        <v>209.9050148790277</v>
+        <v>363.3273262582156</v>
       </c>
       <c r="K45" t="n">
         <v>129.5201028102733</v>
@@ -38113,13 +38113,13 @@
         <v>200.6694948258324</v>
       </c>
       <c r="P45" t="n">
-        <v>462.4854264222858</v>
+        <v>157.8816041000399</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.34586373116238</v>
+        <v>142.0066673157299</v>
       </c>
       <c r="R45" t="n">
-        <v>34.73950230036915</v>
+        <v>141.2602096588598</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,22 +38180,22 @@
         <v>320.4529020790449</v>
       </c>
       <c r="L46" t="n">
-        <v>95.34523394524604</v>
+        <v>462.4854264222859</v>
       </c>
       <c r="M46" t="n">
-        <v>319.7949113391555</v>
+        <v>101.0629999886324</v>
       </c>
       <c r="N46" t="n">
-        <v>462.4854264222858</v>
+        <v>99.94969314966966</v>
       </c>
       <c r="O46" t="n">
-        <v>88.98549980982115</v>
+        <v>150.2104293519822</v>
       </c>
       <c r="P46" t="n">
         <v>388.9289670639457</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.426581742306</v>
+        <v>194.3291043462444</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
